--- a/InputFiles/TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma.xlsx
+++ b/InputFiles/TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\Sofia0629\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9CF6B5-685D-49B4-80C6-8C12CB897EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6080F50-7234-4102-8B64-F63FEA51E5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE70FEB1-7084-4373-B676-EB3693A27A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,62 +68,105 @@
     <t>TC09_CDS_Filter_Prim_Diag_Anaplasticmedulloblastoma_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (diag:diagnosis)
+    <t>MATCH (p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+WITH s, p, samp, f, g, diag
 WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-MATCH (diag)--&gt;(p:participant)--&gt;(s:study)
-optional MATCH (samp:sample)--&gt;(p)
-WITH p, s, collect(samp.sample_id) as samp
+WITH p
+OPTIONAL MATCH (p)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)--&gt;(p)
+WITH s, p, apoc.coll.sort(collect(distinct samp.sample_id)) as samp
+RETURN 
+coalesce(p.participant_id,'') as `Participant ID`,
+coalesce(s.study_name, '') as `Study Name`,
+coalesce(s.phs_accession,'') as `Accession`,
+coalesce(p.gender,'') as `Gender`,
+coalesce(apoc.text.join(samp, ','), '') as `Samples`
+ORDER BY p.participant_id
+LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (f:file)--&gt;(s:study)
+OPTIONAL MATCH (samp:sample)&lt;--(f)
+OPTIONAL MATCH (samp)--&gt;(p:participant)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH s, p, samp, f, g, diag
+WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+WITH DISTINCT f, s, p, samp
 RETURN
+    coalesce(f.file_name, '') as `File Name`,
+    coalesce(s.study_name,'') as `Study Name`,
+    coalesce(s.phs_accession,'') as `Accession`,
+    coalesce(p.participant_id, '') as `Participant ID`,
+    coalesce(samp.sample_id, '') as `Sample ID`,
+    coalesce(f.file_type, '') as `File Type`
+ORDER BY f.file_name
+LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (samp:sample)--&gt;(p:participant)--&gt;(s:study)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH s, p, samp, f, g, diag
+WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+WITH DISTINCT s, p, samp
+RETURN
+    coalesce(samp.sample_id, '') as `Sample ID`,
     coalesce(p.participant_id,'') as `Participant ID`,
     coalesce(s.study_name, '') as `Study Name`,
     coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.gender,'') as `Gender`,
-    coalesce(apoc.text.join(samp, ','), '') as `Samples`
-ORDER BY `Participant ID`
+    coalesce(samp.sample_tumor_status,'') as `Tumor`,
+    coalesce(samp.sample_type,'') as `Analyte Type`
+ORDER BY samp.sample_id 
 LIMIT 100</t>
   </si>
   <si>
-    <t xml:space="preserve">
-MATCH (diag:diagnosis)--&gt;(p)
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-MATCH (diag)--&gt;(p:participant)--&gt;(s:study)
-MATCH (samp:sample)--&gt;(p)
-WITH p,s,samp,COLLECT(DISTINCT samp.sample_tumor_status) as tumor
-RETURN  
- coalesce(samp.sample_id, '') as `Sample ID`,
- coalesce(p.participant_id,'') as `Participant ID`,
- coalesce(s.study_name, '') as `Study Name`,
- coalesce(s.phs_accession,'') as `Accession`,
- coalesce(samp.sample_tumor_status,'') as `Tumor`,
-coalesce(samp.sample_type,'') as `Analyte Type`
-ORDER By samp.sample_id 
-LIMIT 100</t>
-  </si>
-  <si>
-    <t>MATCH (diag:diagnosis)--&gt;(p)
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-MATCH (g)--&gt;(f:file)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
-WITH DISTINCT p,s,samp,f
+    <t>CALL{
+    MATCH (p:participant)--&gt;(s:study)
+    OPTIONAL MATCH (samp:sample)--&gt;(p)
+    OPTIONAL MATCH (samp)&lt;--(f:file)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+   WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+    RETURN 
+        count(distinct p) AS num_participants
+}
+WITH num_participants
+CALL {
+    MATCH (samp:sample)--&gt;(p:participant)--&gt;(s)
+    OPTIONAL MATCH (samp)&lt;--(f:file)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+    WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+    RETURN 
+        count(distinct samp) AS num_samples
+}
+WITH num_participants, num_samples
+CALL {
+    MATCH (f:file)--&gt;(s:study)
+    OPTIONAL MATCH (f)&lt;--(g:genomic_info)
+    OPTIONAL MATCH (samp:sample)&lt;--(f)
+    OPTIONAL MATCH (p:participant)&lt;--(samp)
+    OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+    WITH s, p, samp, f, g, diag
+    WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
+    RETURN 
+        count(distinct s) AS num_studies,
+        count(distinct f) AS num_files
+}
 RETURN 
-    coalesce(f.file_name, '') as `File Name`,
-    coalesce(s.study_name, '') as `Study Name`,
-    coalesce(s.phs_accession,'') as `Accession`,
-    coalesce(p.participant_id,'') as `Participant ID`,
-    coalesce(samp.sample_id, '') as `Sample ID`,
-    coalesce(f.file_type, '') as `File Type`
-   ORDER By f.file_name 
-   LIMIT 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-MATCH (diag:diagnosis)--&gt;(p)
-WHERE diag.primary_diagnosis in ['Anaplastic medulloblastoma']
-MATCH (g)--&gt;(f:file)--&gt;(samp:sample)--&gt;(p:participant)--&gt;(s:study)
-RETURN
-    count(distinct s) AS Studies,
-    count(distinct p) AS Participants,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Files`</t>
+    num_studies AS Studies,
+    num_participants AS Participants,
+    num_samples AS Samples,
+    num_files AS `Files`</t>
   </si>
 </sst>
 </file>
@@ -542,7 +585,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -554,12 +597,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
